--- a/data/CGE/expgame_2018-09-10 CGE.xlsx
+++ b/data/CGE/expgame_2018-09-10 CGE.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diegos.ramirez\Dropbox\JPRabanal\data\S01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrab0004/Downloads/data/CGE/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="91">
   <si>
     <t>participant.id_in_session</t>
   </si>
@@ -297,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,7 +355,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -392,9 +400,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -427,9 +435,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -635,13 +643,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="AI2" sqref="A2:AI25"/>
+    <sheetView tabSelected="1" topLeftCell="N120" workbookViewId="0">
+      <selection activeCell="Q123" sqref="Q123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +753,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -822,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -899,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -976,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1130,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1284,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1361,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1438,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1515,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1592,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1669,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1746,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1823,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1900,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1977,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2054,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2131,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -2208,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2285,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10</v>
       </c>
@@ -2439,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>11</v>
       </c>
@@ -2516,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>12</v>
       </c>
@@ -2593,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2670,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2747,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2824,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2978,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -3055,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7</v>
       </c>
@@ -3132,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -3209,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3286,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10</v>
       </c>
@@ -3363,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>11</v>
       </c>
@@ -3440,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>12</v>
       </c>
@@ -3517,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3594,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3671,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3748,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3825,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -3902,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>6</v>
       </c>
@@ -3979,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7</v>
       </c>
@@ -4056,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8</v>
       </c>
@@ -4133,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9</v>
       </c>
@@ -4210,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10</v>
       </c>
@@ -4287,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>11</v>
       </c>
@@ -4364,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>12</v>
       </c>
@@ -4441,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -4518,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -4595,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -4672,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -4749,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5</v>
       </c>
@@ -4826,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6</v>
       </c>
@@ -4903,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7</v>
       </c>
@@ -4980,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>8</v>
       </c>
@@ -5057,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>9</v>
       </c>
@@ -5134,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10</v>
       </c>
@@ -5211,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>11</v>
       </c>
@@ -5288,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>12</v>
       </c>
@@ -5365,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5442,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -5519,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -5596,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4</v>
       </c>
@@ -5673,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5</v>
       </c>
@@ -5750,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6</v>
       </c>
@@ -5827,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7</v>
       </c>
@@ -5904,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>8</v>
       </c>
@@ -5981,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>9</v>
       </c>
@@ -6058,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10</v>
       </c>
@@ -6135,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>11</v>
       </c>
@@ -6212,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>12</v>
       </c>
@@ -6289,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -6366,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2</v>
       </c>
@@ -6443,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -6520,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4</v>
       </c>
@@ -6597,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5</v>
       </c>
@@ -6674,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>6</v>
       </c>
@@ -6751,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7</v>
       </c>
@@ -6828,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>8</v>
       </c>
@@ -6905,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>9</v>
       </c>
@@ -6982,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>10</v>
       </c>
@@ -7059,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>11</v>
       </c>
@@ -7136,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>12</v>
       </c>
@@ -7213,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -7290,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2</v>
       </c>
@@ -7367,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3</v>
       </c>
@@ -7444,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -7521,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5</v>
       </c>
@@ -7598,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6</v>
       </c>
@@ -7675,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>7</v>
       </c>
@@ -7752,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>8</v>
       </c>
@@ -7829,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>9</v>
       </c>
@@ -7906,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10</v>
       </c>
@@ -7983,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>11</v>
       </c>
@@ -8060,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>12</v>
       </c>
@@ -8137,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -8214,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2</v>
       </c>
@@ -8291,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3</v>
       </c>
@@ -8368,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4</v>
       </c>
@@ -8445,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>5</v>
       </c>
@@ -8522,7 +8530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>6</v>
       </c>
@@ -8599,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7</v>
       </c>
@@ -8676,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>8</v>
       </c>
@@ -8753,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>9</v>
       </c>
@@ -8830,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10</v>
       </c>
@@ -8907,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>11</v>
       </c>
@@ -8984,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>12</v>
       </c>
@@ -9061,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1</v>
       </c>
@@ -9138,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2</v>
       </c>
@@ -9215,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3</v>
       </c>
@@ -9292,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4</v>
       </c>
@@ -9369,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>5</v>
       </c>
@@ -9446,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>6</v>
       </c>
@@ -9523,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>7</v>
       </c>
@@ -9600,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>8</v>
       </c>
@@ -9677,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>9</v>
       </c>
@@ -9754,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10</v>
       </c>
@@ -9831,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>11</v>
       </c>
@@ -9908,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>12</v>
       </c>
@@ -9985,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -10025,6 +10033,9 @@
       <c r="O122">
         <v>2</v>
       </c>
+      <c r="P122" t="s">
+        <v>89</v>
+      </c>
       <c r="Q122">
         <v>63</v>
       </c>
@@ -10062,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
@@ -10102,6 +10113,9 @@
       <c r="O123">
         <v>1</v>
       </c>
+      <c r="P123" t="s">
+        <v>90</v>
+      </c>
       <c r="Q123">
         <v>101</v>
       </c>
@@ -10139,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3</v>
       </c>
@@ -10179,6 +10193,9 @@
       <c r="O124">
         <v>2</v>
       </c>
+      <c r="P124" t="s">
+        <v>90</v>
+      </c>
       <c r="Q124">
         <v>87</v>
       </c>
@@ -10216,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4</v>
       </c>
@@ -10256,6 +10273,9 @@
       <c r="O125">
         <v>1</v>
       </c>
+      <c r="P125" t="s">
+        <v>90</v>
+      </c>
       <c r="Q125">
         <v>100</v>
       </c>
@@ -10293,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5</v>
       </c>
@@ -10333,6 +10353,9 @@
       <c r="O126">
         <v>1</v>
       </c>
+      <c r="P126" t="s">
+        <v>89</v>
+      </c>
       <c r="Q126">
         <v>61</v>
       </c>
@@ -10370,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
@@ -10410,6 +10433,9 @@
       <c r="O127">
         <v>2</v>
       </c>
+      <c r="P127" t="s">
+        <v>90</v>
+      </c>
       <c r="Q127">
         <v>75</v>
       </c>
@@ -10447,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
@@ -10487,6 +10513,9 @@
       <c r="O128">
         <v>1</v>
       </c>
+      <c r="P128" t="s">
+        <v>90</v>
+      </c>
       <c r="Q128">
         <v>101</v>
       </c>
@@ -10524,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>8</v>
       </c>
@@ -10564,6 +10593,9 @@
       <c r="O129">
         <v>1</v>
       </c>
+      <c r="P129" t="s">
+        <v>89</v>
+      </c>
       <c r="Q129">
         <v>78</v>
       </c>
@@ -10601,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>9</v>
       </c>
@@ -10641,6 +10673,9 @@
       <c r="O130">
         <v>1</v>
       </c>
+      <c r="P130" t="s">
+        <v>89</v>
+      </c>
       <c r="Q130">
         <v>101</v>
       </c>
@@ -10678,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10</v>
       </c>
@@ -10718,6 +10753,9 @@
       <c r="O131">
         <v>2</v>
       </c>
+      <c r="P131" t="s">
+        <v>90</v>
+      </c>
       <c r="Q131">
         <v>80</v>
       </c>
@@ -10755,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>11</v>
       </c>
@@ -10795,6 +10833,9 @@
       <c r="O132">
         <v>2</v>
       </c>
+      <c r="P132" t="s">
+        <v>90</v>
+      </c>
       <c r="Q132">
         <v>45</v>
       </c>
@@ -10832,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>12</v>
       </c>
@@ -10872,6 +10913,9 @@
       <c r="O133">
         <v>2</v>
       </c>
+      <c r="P133" t="s">
+        <v>90</v>
+      </c>
       <c r="Q133">
         <v>99</v>
       </c>
@@ -10909,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1</v>
       </c>
@@ -10989,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2</v>
       </c>
@@ -11069,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3</v>
       </c>
@@ -11149,7 +11193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>4</v>
       </c>
@@ -11229,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>5</v>
       </c>
@@ -11309,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>6</v>
       </c>
@@ -11389,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>7</v>
       </c>
@@ -11469,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>8</v>
       </c>
@@ -11549,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>9</v>
       </c>
@@ -11629,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>10</v>
       </c>
@@ -11709,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>11</v>
       </c>
@@ -11789,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>12</v>
       </c>
